--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="429">
   <si>
     <t>Property</t>
   </si>
@@ -498,7 +498,7 @@
     <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding.system}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -725,6 +725,15 @@
     <t>レポートを作成した臨床分野・部門、または診断サービス（CT, US, MRIなど）を分類するコード。 これは、検索、並べ替え、および表示の目的で使用される。【JP-Core仕様】放射線レポートは第1コードとして LP29684-5 を固定値として設定。第2コード以下にDICOMModalityコードを列挙することでレポートの対象検査内容を示す。</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="LP29684-5"/&gt;
+    &lt;display value="放射線"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
   </si>
   <si>
@@ -746,24 +755,15 @@
     <t>DiagnosticReport.category:radiology.coding.system</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
-  </si>
-  <si>
     <t>DiagnosticReport.category:radiology.coding.version</t>
   </si>
   <si>
     <t>DiagnosticReport.category:radiology.coding.code</t>
   </si>
   <si>
-    <t>LP29684-5</t>
-  </si>
-  <si>
     <t>DiagnosticReport.category:radiology.coding.display</t>
   </si>
   <si>
-    <t>放射線</t>
-  </si>
-  <si>
     <t>DiagnosticReport.category:radiology.coding.userSelected</t>
   </si>
   <si>
@@ -801,9 +801,6 @@
   </si>
   <si>
     <t>DiagnosticReport.category:radiology_sub.coding.system</t>
-  </si>
-  <si>
-    <t>http://dicom.nema.org/resources/ontology/DCM</t>
   </si>
   <si>
     <t>DiagnosticReport.category:radiology_sub.coding.version</t>
@@ -1745,7 +1742,7 @@
     <col min="25" max="25" width="73.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="69.203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.17578125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="14.46484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
@@ -4551,7 +4548,7 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>41</v>
@@ -4573,7 +4570,7 @@
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>41</v>
@@ -4620,7 +4617,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>155</v>
@@ -4732,7 +4729,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>161</v>
@@ -4846,7 +4843,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>166</v>
@@ -4962,7 +4959,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>175</v>
@@ -5074,7 +5071,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>176</v>
@@ -5188,7 +5185,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>177</v>
@@ -5199,7 +5196,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>51</v>
@@ -5233,7 +5230,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>41</v>
@@ -5429,7 +5426,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>51</v>
@@ -5461,7 +5458,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>234</v>
+        <v>41</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>41</v>
@@ -5532,7 +5529,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>197</v>
@@ -5578,7 +5575,7 @@
         <v>41</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>41</v>
@@ -5646,7 +5643,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>203</v>
@@ -5762,7 +5759,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>212</v>
@@ -5878,13 +5875,13 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>141</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>142</v>
@@ -5909,10 +5906,10 @@
         <v>143</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>146</v>
@@ -5945,7 +5942,7 @@
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>41</v>
@@ -5992,7 +5989,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>155</v>
@@ -6104,7 +6101,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>161</v>
@@ -6218,7 +6215,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>166</v>
@@ -6334,7 +6331,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>175</v>
@@ -6446,7 +6443,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>176</v>
@@ -6560,7 +6557,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>177</v>
@@ -6571,7 +6568,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>51</v>
@@ -6605,7 +6602,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>41</v>
@@ -6676,7 +6673,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>184</v>
@@ -6790,7 +6787,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>191</v>
@@ -6819,10 +6816,10 @@
         <v>71</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6904,7 +6901,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>197</v>
@@ -6933,10 +6930,10 @@
         <v>156</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7018,7 +7015,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>203</v>
@@ -7134,7 +7131,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>212</v>
@@ -7250,14 +7247,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7279,13 +7276,13 @@
         <v>143</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7315,7 +7312,7 @@
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>41</v>
@@ -7333,7 +7330,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>51</v>
@@ -7348,24 +7345,24 @@
         <v>63</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>267</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7474,10 +7471,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7588,10 +7585,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7663,7 +7660,7 @@
         <v>41</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
@@ -7702,13 +7699,13 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B53" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C53" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>41</v>
@@ -7733,13 +7730,13 @@
         <v>167</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>171</v>
@@ -7820,10 +7817,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7932,10 +7929,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8046,10 +8043,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8075,10 +8072,10 @@
         <v>65</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>179</v>
@@ -8091,7 +8088,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>41</v>
@@ -8162,10 +8159,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8276,10 +8273,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8305,10 +8302,10 @@
         <v>71</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8319,7 +8316,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>41</v>
@@ -8390,10 +8387,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8419,10 +8416,10 @@
         <v>156</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8436,7 +8433,7 @@
         <v>41</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>41</v>
@@ -8504,10 +8501,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8620,10 +8617,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8736,14 +8733,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8762,19 +8759,19 @@
         <v>52</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>41</v>
@@ -8823,7 +8820,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -8838,28 +8835,28 @@
         <v>63</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8878,19 +8875,19 @@
         <v>52</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>41</v>
@@ -8939,7 +8936,7 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -8954,28 +8951,28 @@
         <v>63</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>322</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8994,19 +8991,19 @@
         <v>52</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>41</v>
@@ -9055,7 +9052,7 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9070,28 +9067,28 @@
         <v>63</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>333</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9110,19 +9107,19 @@
         <v>52</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>41</v>
@@ -9171,7 +9168,7 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9189,25 +9186,25 @@
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9226,19 +9223,19 @@
         <v>52</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>41</v>
@@ -9287,7 +9284,7 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -9302,28 +9299,28 @@
         <v>63</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9342,19 +9339,19 @@
         <v>52</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>41</v>
@@ -9403,7 +9400,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -9418,24 +9415,24 @@
         <v>63</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9458,19 +9455,19 @@
         <v>41</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>41</v>
@@ -9519,7 +9516,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -9537,10 +9534,10 @@
         <v>41</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>41</v>
@@ -9548,14 +9545,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9574,19 +9571,19 @@
         <v>41</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>41</v>
@@ -9635,7 +9632,7 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -9653,10 +9650,10 @@
         <v>41</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>41</v>
@@ -9664,10 +9661,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9690,16 +9687,16 @@
         <v>41</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9749,7 +9746,7 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -9770,7 +9767,7 @@
         <v>41</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>41</v>
@@ -9778,14 +9775,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9804,19 +9801,19 @@
         <v>52</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>41</v>
@@ -9865,7 +9862,7 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -9883,10 +9880,10 @@
         <v>41</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>41</v>
@@ -9894,10 +9891,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10006,10 +10003,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10120,14 +10117,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10149,10 +10146,10 @@
         <v>97</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>100</v>
@@ -10207,7 +10204,7 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -10236,10 +10233,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10265,16 +10262,16 @@
         <v>156</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="O75" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>41</v>
@@ -10323,7 +10320,7 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
@@ -10344,7 +10341,7 @@
         <v>41</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>41</v>
@@ -10352,10 +10349,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10378,16 +10375,16 @@
         <v>52</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N76" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10437,7 +10434,7 @@
         <v>41</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>51</v>
@@ -10458,7 +10455,7 @@
         <v>41</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>41</v>
@@ -10466,14 +10463,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10495,16 +10492,16 @@
         <v>156</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O77" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>41</v>
@@ -10553,7 +10550,7 @@
         <v>41</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -10571,10 +10568,10 @@
         <v>41</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>41</v>
@@ -10582,10 +10579,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10611,13 +10608,13 @@
         <v>143</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10646,10 +10643,10 @@
         <v>147</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>41</v>
@@ -10667,7 +10664,7 @@
         <v>41</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -10685,10 +10682,10 @@
         <v>41</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>41</v>
@@ -10696,10 +10693,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10722,19 +10719,19 @@
         <v>41</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>41</v>
@@ -10783,7 +10780,7 @@
         <v>41</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
@@ -10801,10 +10798,10 @@
         <v>41</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -498,7 +498,7 @@
     <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this}
+    <t xml:space="preserve">pattern:$this}
 </t>
   </si>
   <si>

--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -498,7 +498,7 @@
     <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -729,7 +729,6 @@
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
     &lt;code value="LP29684-5"/&gt;
-    &lt;display value="放射線"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -4548,10 +4547,10 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S25" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>41</v>
